--- a/tables/xls/it/71_Mezzi attesi.xlsx
+++ b/tables/xls/it/71_Mezzi attesi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>ORGANIZZAZIONE</t>
   </si>
@@ -153,6 +153,9 @@
     <t>Sì</t>
   </si>
   <si>
+    <t>D.V.G.</t>
+  </si>
+  <si>
     <t>VOLONTARI ATTESI</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t>COD. ORGANIZZAZIONE</t>
+  </si>
+  <si>
+    <t>VG</t>
   </si>
   <si>
     <t>COD. INV. REG.</t>
@@ -620,15 +626,6 @@
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
 
@@ -771,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -801,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
         <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
         <v>16</v>
@@ -836,10 +833,10 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
@@ -875,35 +872,19 @@
         <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
@@ -1027,24 +1008,6 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" t="s">
@@ -1171,8 +1134,6 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
       <c r="E11" t="s">
         <v>43</v>
       </c>
@@ -1182,26 +1143,21 @@
       <c r="G11" t="s">
         <v>43</v>
       </c>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>43</v>
       </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
       <c r="O11" t="s">
         <v>43</v>
       </c>
-      <c r="P11"/>
+      <c r="P11" t="s">
+        <v>43</v>
+      </c>
       <c r="Q11" t="s">
         <v>43</v>
       </c>
-      <c r="R11"/>
-      <c r="S11"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
@@ -1266,49 +1222,20 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
@@ -1317,53 +1244,18 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1371,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1379,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1395,7 +1287,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1427,21 +1319,12 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>